--- a/实施周数据-张磊组/11月/46周/实施周数据-张磊组-别伟超.xlsx
+++ b/实施周数据-张磊组/11月/46周/实施周数据-张磊组-别伟超.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -1496,6 +1496,15 @@
   </si>
   <si>
     <t>杜煜天</t>
+  </si>
+  <si>
+    <t>客倌来串</t>
+  </si>
+  <si>
+    <t>客倌来串（紫荆广场店）</t>
+  </si>
+  <si>
+    <t>叶晓飞</t>
   </si>
   <si>
     <t>姓名</t>
@@ -1524,10 +1533,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="34">
@@ -1754,18 +1763,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2503,7 +2512,7 @@
     <xf numFmtId="0" fontId="22" fillId="21" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -2580,7 +2589,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3682,10 +3691,10 @@
   <sheetPr/>
   <dimension ref="A1:O602"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C185" sqref="C185"/>
+      <selection pane="bottomLeft" activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12091,7 +12100,7 @@
       </c>
     </row>
     <row r="197" spans="1:15">
-      <c r="A197" s="49"/>
+      <c r="A197" s="43"/>
       <c r="B197" s="41">
         <v>43053</v>
       </c>
@@ -12136,9 +12145,49 @@
       </c>
     </row>
     <row r="198" spans="1:15">
-      <c r="A198" s="18"/>
-      <c r="N198" s="26"/>
-      <c r="O198" s="6"/>
+      <c r="A198" s="49"/>
+      <c r="B198" s="32">
+        <v>43053</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E198" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="F198" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G198" s="6">
+        <v>76108207</v>
+      </c>
+      <c r="H198" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="I198" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J198" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K198" s="6">
+        <v>17721436606</v>
+      </c>
+      <c r="L198" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="M198" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="N198" s="26">
+        <v>18016233560</v>
+      </c>
+      <c r="O198" s="6" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="18"/>
@@ -13616,7 +13665,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A180:A197"/>
+    <mergeCell ref="A180:A198"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B60 B71 B84 B85 B86 B106 B163 B179 B4:B17 B18:B23 B24:B34 B49:B59 B61:B70 B72:B81 B82:B83 B87:B105 B107:B117 B118:B137 B138:B146 B147:B162 B164:B178 B180:B197 B198:B1048576">
@@ -13638,7 +13687,7 @@
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -13651,13 +13700,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -13668,7 +13717,7 @@
         <v>42980</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -13679,7 +13728,7 @@
         <v>42994</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -13690,7 +13739,7 @@
         <v>43001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -13706,7 +13755,7 @@
         <v>43050</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="7" spans="1:3">

--- a/实施周数据-张磊组/11月/46周/实施周数据-张磊组-别伟超.xlsx
+++ b/实施周数据-张磊组/11月/46周/实施周数据-张磊组-别伟超.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -1505,6 +1505,12 @@
   </si>
   <si>
     <t>叶晓飞</t>
+  </si>
+  <si>
+    <t>捞王锅物料理(苏州中心店)</t>
+  </si>
+  <si>
+    <t>0512-69881998</t>
   </si>
   <si>
     <t>姓名</t>
@@ -1534,10 +1540,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -1613,11 +1619,6 @@
     <font>
       <sz val="11"/>
       <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1705,12 +1706,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1750,7 +1745,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1763,12 +1765,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1835,6 +1841,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1853,151 +2003,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2440,10 +2446,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2452,141 +2458,141 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
@@ -3694,7 +3700,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C200" sqref="C200"/>
+      <selection pane="bottomLeft" activeCell="A199" sqref="A199:O199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12191,8 +12197,48 @@
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="18"/>
-      <c r="N199" s="26"/>
-      <c r="O199" s="6"/>
+      <c r="B199" s="32">
+        <v>43054</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E199" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F199" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G199" s="6">
+        <v>76102029</v>
+      </c>
+      <c r="H199" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="I199" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J199" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K199" s="6">
+        <v>17721436606</v>
+      </c>
+      <c r="L199" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="M199" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N199" s="26" t="s">
+        <v>489</v>
+      </c>
+      <c r="O199" s="6" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="200" spans="1:15">
       <c r="A200" s="18"/>
@@ -13700,13 +13746,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -13717,7 +13763,7 @@
         <v>42980</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -13728,7 +13774,7 @@
         <v>42994</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -13739,7 +13785,7 @@
         <v>43001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -13755,7 +13801,7 @@
         <v>43050</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:3">

--- a/实施周数据-张磊组/11月/46周/实施周数据-张磊组-别伟超.xlsx
+++ b/实施周数据-张磊组/11月/46周/实施周数据-张磊组-别伟超.xlsx
@@ -1539,11 +1539,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -3700,7 +3700,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A199" sqref="A199:O199"/>
+      <selection pane="bottomLeft" activeCell="D180" sqref="D180:D199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12151,7 +12151,7 @@
       </c>
     </row>
     <row r="198" spans="1:15">
-      <c r="A198" s="49"/>
+      <c r="A198" s="43"/>
       <c r="B198" s="32">
         <v>43053</v>
       </c>
@@ -12196,7 +12196,7 @@
       </c>
     </row>
     <row r="199" spans="1:15">
-      <c r="A199" s="18"/>
+      <c r="A199" s="49"/>
       <c r="B199" s="32">
         <v>43054</v>
       </c>
@@ -13711,7 +13711,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A180:A198"/>
+    <mergeCell ref="A180:A199"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B60 B71 B84 B85 B86 B106 B163 B179 B4:B17 B18:B23 B24:B34 B49:B59 B61:B70 B72:B81 B82:B83 B87:B105 B107:B117 B118:B137 B138:B146 B147:B162 B164:B178 B180:B197 B198:B1048576">
